--- a/examples/templates/EmploymentContractTemplate.xlsx
+++ b/examples/templates/EmploymentContractTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B1E50-05EE-374C-8434-1A0EBE71F11C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B525B0-7224-5343-9214-3924694A755B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>employment-contract-${Employee}</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Employment contract template</t>
+  </si>
+  <si>
+    <t>EmploymentContract-${Employee}</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -630,7 +630,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -717,7 +717,7 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -852,7 +852,7 @@
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -998,10 +998,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/examples/templates/EmploymentContractTemplate.xlsx
+++ b/examples/templates/EmploymentContractTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B525B0-7224-5343-9214-3924694A755B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB532D0-C907-6348-BDB1-782E55932897}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t/>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>This template is used for the generation of emloyee contracts.</t>
-  </si>
-  <si>
-    <t>Filename</t>
   </si>
   <si>
     <t>Id</t>
@@ -199,6 +196,24 @@
   </si>
   <si>
     <t>EmploymentContract-${Employee}</t>
+  </si>
+  <si>
+    <t>FilenamePattern</t>
+  </si>
+  <si>
+    <t>Find a unique name shortly describing the functionality of this template, e. g. 'Employee contract'. You may refer this definition Excel file by this name or the id (defined below).</t>
+  </si>
+  <si>
+    <t>Only for describing the purpose of this template definition for the users.</t>
+  </si>
+  <si>
+    <t>Here you may define the file name pattern of the generated files. You can use all Variables of the template, e. g. 'letter-'${receiver}'.</t>
+  </si>
+  <si>
+    <t>Preserved filename characters such as ':', '\' are replaced by Underscores for generating valid filenames. If this flag is set, only a very restricted set of characters are allowed (ASCII letters, numbers and "._-"). German letters are replaced (e. g. 'ä' by 'ae'), all other characters are replaced by Underscores.</t>
+  </si>
+  <si>
+    <t>StronglyRestrictedFilenames</t>
   </si>
 </sst>
 </file>
@@ -269,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -277,6 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -600,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -617,28 +633,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -717,7 +733,7 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
@@ -738,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -843,20 +859,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -953,32 +969,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="232.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -998,13 +1014,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1015,29 +1031,40 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/examples/templates/EmploymentContractTemplate.xlsx
+++ b/examples/templates/EmploymentContractTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB532D0-C907-6348-BDB1-782E55932897}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C840D0-9C6E-EF4F-862D-F22BB07F0025}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t/>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>JZpnpojeSuN5JDqtm9KZ</t>
   </si>
   <si>
     <t>Here all variables are defined which the user can customize. These variables are usable inside the MS Word® template files.
@@ -175,17 +172,11 @@
 It's recommended to refer the Merlin application for modifying template configurations.</t>
   </si>
   <si>
-    <t>Please do not modify this value.</t>
-  </si>
-  <si>
     <t>This sheet contains the configuration of this template.
 Please modify this sheet only if you know what you're doing!
 It's recommended to refer the Merlin application for modifying template configurations.</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>FilenamePattern</t>
   </si>
   <si>
-    <t>Find a unique name shortly describing the functionality of this template, e. g. 'Employee contract'. You may refer this definition Excel file by this name or the id (defined below).</t>
-  </si>
-  <si>
     <t>Only for describing the purpose of this template definition for the users.</t>
   </si>
   <si>
@@ -214,13 +202,16 @@
   </si>
   <si>
     <t>StronglyRestrictedFilenames</t>
+  </si>
+  <si>
+    <t>Find a unique name shortly describing the functionality of this template, e. g. 'Employee contract'. You may refer this definition Excel file by this id.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -238,13 +229,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -284,20 +268,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -633,28 +616,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -731,30 +714,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>53</v>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -799,10 +782,10 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>40</v>
       </c>
       <c r="H8" t="s">
@@ -825,10 +808,10 @@
       <c r="E9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>20</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>30</v>
       </c>
       <c r="H9" t="s">
@@ -859,20 +842,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -969,9 +952,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -983,26 +966,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1014,13 +997,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1031,40 +1014,29 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/examples/templates/EmploymentContractTemplate.xlsx
+++ b/examples/templates/EmploymentContractTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C840D0-9C6E-EF4F-862D-F22BB07F0025}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D95CBF-0A05-2E42-A389-5B856A3BFA6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>Date of contract.</t>
   </si>
   <si>
-    <t>Employment contract template</t>
-  </si>
-  <si>
     <t>EmploymentContract-${Employee}</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Find a unique name shortly describing the functionality of this template, e. g. 'Employee contract'. You may refer this definition Excel file by this id.</t>
+  </si>
+  <si>
+    <t>Employment contract definition</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1000,10 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1014,29 +1014,29 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/examples/templates/EmploymentContractTemplate.xlsx
+++ b/examples/templates/EmploymentContractTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D95CBF-0A05-2E42-A389-5B856A3BFA6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDD28C4-8F59-7440-A19D-0CD0E79F2B46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6220" yWindow="460" windowWidth="27380" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t/>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Employment contract definition</t>
+  </si>
+  <si>
+    <t>him_her</t>
+  </si>
+  <si>
+    <t>"him", "her"</t>
+  </si>
+  <si>
+    <t>{"male"-&gt;"him", "female"-&gt;"her"}</t>
   </si>
 </sst>
 </file>
@@ -268,13 +277,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -616,28 +626,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -829,7 +839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -842,20 +852,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -939,6 +949,20 @@
       </c>
       <c r="D8" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -966,18 +990,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
